--- a/docs/Intro.xlsx
+++ b/docs/Intro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\github\FinalProjectTemplate\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jobsday\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD6CC4B-DE84-49FB-8DFB-30998274DA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1CF5D7-3BE4-4CEE-AFDC-64A52554B124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="970" yWindow="-110" windowWidth="18340" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Họ tên</t>
   </si>
@@ -40,6 +40,46 @@
   </si>
   <si>
     <t>Các chức năng chính</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Đạt</t>
+  </si>
+  <si>
+    <t>0004167</t>
+  </si>
+  <si>
+    <t>Trong bối cảnh thị trường lao động cạnh tranh khốc liệt và nhu cầu kết nối giữa nhà tuyển dụng và người tìm việc ngày càng gia tăng, các nền tảng tuyển dụng trực tuyến đóng vai trò vô cùng quan trọng. Không chỉ giúp doanh nghiệp tiếp cận nguồn ứng viên tiềm năng một cách nhanh chóng, hệ thống còn giúp ứng viên tìm được việc làm phù hợp với kỹ năng và mong muốn.
+Đề tài "Xây dựng trang web tuyển dụng dành cho dân it" được thực hiện nhằm phát triển một hệ thống quản lý tuyển dụng trực tuyến, hỗ trợ đăng tin tuyển dụng, quản lý hồ sơ ứng viên, tìm kiếm thông minh, phân quyền tài khoản và bảo mật thông tin, đồng thời giúp các ứng viên tìm kiếm các việc làm ưng ý, có thể nhắn tin trao đổi trực tiếp với nhà tuyển dụng. Hệ thống được xây dựng với Spring Boot (backend) và Angular (frontend), kết hợp PostgreSql để quản lý dữ liệu, đảm bảo hiệu năng và khả năng mở rộng.</t>
+  </si>
+  <si>
+    <t>1. Dành cho ứng viên
+Đăng ký, đăng nhập, chỉnh sửa thông tin tài khoản.
+Quản lý hồ sơ cá nhân (CV).
+Tìm kiếm và lọc việc làm theo từ khóa, cấp bậc, địa điểm.
+Ứng tuyển trực tuyến cho các vị trí phù hợp.
+Xem lịch sử ứng tuyển.
+Phản hồi từ nhà tuyển dụng.
+Nhắn tin với nhà tuyển dụng.
+2. Dành cho nhà tuyển dụng
+Đăng ký, đăng nhập và quản lý các tài khoản công ty.
+Tạo, chỉnh sửa và xóa tin tuyển dụng.
+Quản lý danh sách ứng viên đã ứng tuyển vào tin đăng.
+Tìm kiếm và lọc ứng viên theo tiêu chí mong muốn.
+Gửi thông báo cho ứng viên.
+Nhắn tin với ứng viên.
+3. Dành cho quản trị viên hệ thống
+Quản lý toàn bộ tài khoản (ứng viên, nhà tuyển dụng).
+Duyệt hoặc khóa tài khoản nhà tuyển dụng mới đăng ký.
+Quản lý và kiểm duyệt tin tuyển dụng.
+Thống kê số lượng tin đăng, số lượng ứng viên, lượt ứng tuyển.
+4. Chức năng chung
+Hệ thống đăng nhập/đăng xuất bảo mật (JWT, mã hóa mật khẩu).
+Giao diện thân thiện.
+Thông báo real-time (ví dụ: khi có ứng viên ứng tuyển hoặc nhà tuyển dụng phản hồi).
+Tìm kiếm nhanh toàn hệ thống.</t>
+  </si>
+  <si>
+    <t>Trang tuyển dụng dành cho dân it</t>
   </si>
 </sst>
 </file>
@@ -50,7 +90,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -90,11 +130,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -382,41 +426,51 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="2" max="2" width="46.08984375" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="199.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" ht="79" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" ht="115" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="399" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
